--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FF52F-CFFD-49C4-B918-523E2DC52DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39F1D7F-2F00-49A4-B0CE-94B8140BDD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39F1D7F-2F00-49A4-B0CE-94B8140BDD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D56D9B-225C-49C7-96C2-F418D160F38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D56D9B-225C-49C7-96C2-F418D160F38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF330120-85D1-439D-8D90-981B7B760215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="15795" windowHeight="8745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF330120-85D1-439D-8D90-981B7B760215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA63045-AB8F-451A-B564-4D2717D9492A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="15795" windowHeight="8745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA63045-AB8F-451A-B564-4D2717D9492A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711758C2-234B-46C7-956D-055DB1EA6651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711758C2-234B-46C7-956D-055DB1EA6651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E3B3B-6FD2-47F3-847A-DEAB4DB9D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E3B3B-6FD2-47F3-847A-DEAB4DB9D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B8925-E786-4C9F-9C7C-EE907DB62C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
@@ -639,7 +639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5975,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E738D2C-04A8-44A7-9608-813BA02F3F1E}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B8925-E786-4C9F-9C7C-EE907DB62C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E1302-1DFE-4D8B-9E97-8002AD3F12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
     <sheet name="basedem_drsh" sheetId="18" r:id="rId2"/>
     <sheet name="basedem_drot" sheetId="19" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="veda" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8636,7 +8636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
   <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E1302-1DFE-4D8B-9E97-8002AD3F12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B8925-E786-4C9F-9C7C-EE907DB62C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
     <sheet name="basedem_drsh" sheetId="18" r:id="rId2"/>
     <sheet name="basedem_drot" sheetId="19" r:id="rId3"/>
-    <sheet name="veda" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8636,7 +8636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
   <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E1302-1DFE-4D8B-9E97-8002AD3F12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C090C30A-9530-4F36-B8AC-FDE8021DB775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E1302-1DFE-4D8B-9E97-8002AD3F12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
-    <sheet name="basedem_drsh" sheetId="18" r:id="rId2"/>
-    <sheet name="basedem_drot" sheetId="19" r:id="rId3"/>
-    <sheet name="veda" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="basedem_drsh" sheetId="18" r:id="rId4"/>
+    <sheet name="basedem_drot" sheetId="19" r:id="rId5"/>
+    <sheet name="veda" sheetId="16" r:id="rId6"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="99">
   <si>
     <t>Attribute</t>
   </si>
@@ -122,9 +122,6 @@
     <t>valfield</t>
   </si>
   <si>
-    <t>BASE</t>
-  </si>
-  <si>
     <t>REG1</t>
   </si>
   <si>
@@ -134,7 +131,7 @@
     <t>REG2</t>
   </si>
   <si>
-    <t>DEM_Ref</t>
+    <t>demo_NoRecordsEnhancement_UPD</t>
   </si>
   <si>
     <t>UC_N</t>
@@ -195,6 +192,144 @@
   </si>
   <si>
     <t>~UC_T: FX</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
 </sst>
 </file>
@@ -204,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,24 +349,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,60 +381,181 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 9 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normale_B2020" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Percent 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Percent 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Percent 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Percent 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Comma 2" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="22"/>
+    <cellStyle name="Normal 3" xfId="23"/>
+    <cellStyle name="Normal 4" xfId="24"/>
+    <cellStyle name="Normal 4 2" xfId="25"/>
+    <cellStyle name="Normal 8" xfId="26"/>
+    <cellStyle name="Normal 9 2" xfId="27"/>
+    <cellStyle name="Normale_B2020" xfId="28"/>
+    <cellStyle name="Percent 2" xfId="29"/>
+    <cellStyle name="Percent 3" xfId="30"/>
+    <cellStyle name="Percent 3 2" xfId="31"/>
+    <cellStyle name="Percent 3 3" xfId="32"/>
+    <cellStyle name="Percent 4" xfId="33"/>
+    <cellStyle name="Percent 4 2" xfId="34"/>
+    <cellStyle name="Percent 4 3" xfId="35"/>
+    <cellStyle name="Percent 5" xfId="36"/>
+    <cellStyle name="Percent 5 2" xfId="37"/>
+    <cellStyle name="Percent 6" xfId="38"/>
+    <cellStyle name="Percent 7" xfId="39"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="40"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -636,21 +887,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="15">
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -661,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -672,14 +923,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15">
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,12 +941,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -707,23 +958,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4D08F-EE8B-406E-B00C-DD02252CEDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4D08F-EE8B-406E-B00C-DD02252CEDE8}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.14285714285714" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85714285714286" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -764,183 +1015,183 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>2005</v>
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>3439.9697059999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>2005</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3">
-        <v>3790.5267579000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>2006</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>3474.36940306</v>
-      </c>
-      <c r="U4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>2007</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5">
-        <v>3509.1130970905997</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
         <v>8</v>
@@ -949,57 +1200,57 @@
         <v>6</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>3544.2042280615055</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
         <v>9</v>
@@ -1014,2680 +1265,2680 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>3579.6462703421212</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1" t="str">
         <f>B2</f>
         <v>REG1</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="str">
         <f>H2</f>
         <v>2005</v>
       </c>
       <c r="W7">
         <f>M2</f>
-        <v>3439.9697059999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>3615.4427330455419</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" ref="R8:R71" si="0">B3</f>
-        <v>REG2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:S71" si="1">H3</f>
-        <v>2005</v>
+        <f t="shared" si="0" ref="R8:R71">B3</f>
+        <v>REG1</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="1" ref="S8:S71">H3</f>
+        <v>2006</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <f t="shared" ref="W8:W71" si="2">M3</f>
-        <v>3790.5267579000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2" ref="W8:W71">M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <v>2011</v>
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>3651.5971603759972</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" si="1"/>
-        <v>2006</v>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2007</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1">
         <f t="shared" si="2"/>
-        <v>3474.36940306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>2012</v>
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>3688.1131319797578</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S10" s="1">
-        <f t="shared" si="1"/>
-        <v>2007</v>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2008</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1">
         <f t="shared" si="2"/>
-        <v>3509.1130970905997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11">
-        <v>2013</v>
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>3724.9942632995549</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S11" s="1">
-        <f t="shared" si="1"/>
-        <v>2008</v>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2009</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1">
         <f t="shared" si="2"/>
-        <v>3544.2042280615055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>2014</v>
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>3762.2442059325476</v>
+        <v>20</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" si="1"/>
-        <v>2009</v>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2010</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1">
         <f t="shared" si="2"/>
-        <v>3579.6462703421212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13">
-        <v>2015</v>
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>3799.8666479918611</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S13" s="1">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
         <f t="shared" si="2"/>
-        <v>3615.4427330455419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>2016</v>
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>3837.8653144718073</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S14" s="1">
-        <f t="shared" si="1"/>
-        <v>2011</v>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2012</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1">
         <f t="shared" si="2"/>
-        <v>3651.5971603759972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15">
-        <v>2017</v>
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>3876.2439676165136</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S15" s="1">
-        <f t="shared" si="1"/>
-        <v>2012</v>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2013</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
         <f t="shared" si="2"/>
-        <v>3688.1131319797578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16">
-        <v>2018</v>
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>3915.0064072926798</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" si="1"/>
-        <v>2013</v>
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2014</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
         <f t="shared" si="2"/>
-        <v>3724.9942632995549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <v>2019</v>
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>3954.1564713655966</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" si="1"/>
-        <v>2014</v>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2015</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1">
         <f t="shared" si="2"/>
-        <v>3762.2442059325476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <v>2020</v>
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>3993.6980360792659</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S18" s="1">
-        <f t="shared" si="1"/>
-        <v>2015</v>
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2016</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
         <f t="shared" si="2"/>
-        <v>3799.8666479918611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>2021</v>
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>4033.6350164400583</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S19" s="1">
-        <f t="shared" si="1"/>
-        <v>2016</v>
+      <c r="S19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2017</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>3837.8653144718073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20">
-        <v>2022</v>
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>4073.9713666044695</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S20" s="1">
-        <f t="shared" si="1"/>
-        <v>2017</v>
+      <c r="S20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2018</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
         <f t="shared" si="2"/>
-        <v>3876.2439676165136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21">
-        <v>2023</v>
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>4114.711080270481</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S21" s="1">
-        <f t="shared" si="1"/>
-        <v>2018</v>
+      <c r="S21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2019</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
         <f t="shared" si="2"/>
-        <v>3915.0064072926798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>2024</v>
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>4155.8581910731982</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S22" s="1">
-        <f t="shared" si="1"/>
-        <v>2019</v>
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
         <f t="shared" si="2"/>
-        <v>3954.1564713655966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23">
-        <v>2025</v>
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>4197.4167729839464</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S23" s="1">
-        <f t="shared" si="1"/>
-        <v>2020</v>
+      <c r="S23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2021</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
         <f t="shared" si="2"/>
-        <v>3993.6980360792659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24">
-        <v>2026</v>
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>4218.4038568488668</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S24" s="1">
-        <f t="shared" si="1"/>
-        <v>2021</v>
+      <c r="S24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
         <f t="shared" si="2"/>
-        <v>4033.6350164400583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25">
-        <v>2027</v>
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>4239.4958761330818</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" si="1"/>
-        <v>2022</v>
+      <c r="S25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
         <f t="shared" si="2"/>
-        <v>4073.9713666044695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26">
-        <v>2028</v>
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>4260.6933555137739</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S26" s="1">
-        <f t="shared" si="1"/>
-        <v>2023</v>
+      <c r="S26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
         <f t="shared" si="2"/>
-        <v>4114.711080270481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27">
-        <v>2029</v>
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>4281.996822291344</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S27" s="1">
-        <f t="shared" si="1"/>
-        <v>2024</v>
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
         <f t="shared" si="2"/>
-        <v>4155.8581910731982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28">
-        <v>2030</v>
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>4303.4068064027906</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" si="1"/>
-        <v>2025</v>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2026</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
         <f t="shared" si="2"/>
-        <v>4197.4167729839464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29">
-        <v>2031</v>
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>4324.9238404347861</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S29" s="1">
-        <f t="shared" si="1"/>
-        <v>2026</v>
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2027</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
         <f t="shared" si="2"/>
-        <v>4218.4038568488668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30">
-        <v>2032</v>
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>4346.5484596369824</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" si="1"/>
-        <v>2027</v>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2028</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
         <f t="shared" si="2"/>
-        <v>4239.4958761330818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31">
-        <v>2033</v>
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>4368.2812019351604</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" si="1"/>
-        <v>2028</v>
+      <c r="S31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2029</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
         <f t="shared" si="2"/>
-        <v>4260.6933555137739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32">
-        <v>2034</v>
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>4390.1226079448452</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" si="1"/>
-        <v>2029</v>
+      <c r="S32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2030</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
         <f t="shared" si="2"/>
-        <v>4281.996822291344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33">
-        <v>2035</v>
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>4412.0732209845519</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" si="1"/>
-        <v>2030</v>
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2031</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
         <f t="shared" si="2"/>
-        <v>4303.4068064027906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34">
-        <v>2036</v>
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>4434.1335870894782</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S34" s="1">
-        <f t="shared" si="1"/>
-        <v>2031</v>
+      <c r="S34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2032</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1">
         <f t="shared" si="2"/>
-        <v>4324.9238404347861</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35">
-        <v>2037</v>
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>4456.3042550249202</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" si="1"/>
-        <v>2032</v>
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2033</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1">
         <f t="shared" si="2"/>
-        <v>4346.5484596369824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36">
-        <v>2038</v>
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>4478.5857763000658</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S36" s="1">
-        <f t="shared" si="1"/>
-        <v>2033</v>
+      <c r="S36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2034</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1">
         <f t="shared" si="2"/>
-        <v>4368.2812019351604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37">
-        <v>2039</v>
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>4500.9787051815465</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S37" s="1">
-        <f t="shared" si="1"/>
-        <v>2034</v>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2035</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1">
         <f t="shared" si="2"/>
-        <v>4390.1226079448452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38">
-        <v>2040</v>
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>4523.4835987074748</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" si="1"/>
-        <v>2035</v>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2036</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1">
         <f t="shared" si="2"/>
-        <v>4412.0732209845519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39">
-        <v>2041</v>
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>4546.1010167009972</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S39" s="1">
-        <f t="shared" si="1"/>
-        <v>2036</v>
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2037</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1">
         <f t="shared" si="2"/>
-        <v>4434.1335870894782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40">
-        <v>2042</v>
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>91</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>4568.831521784502</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S40" s="1">
-        <f t="shared" si="1"/>
-        <v>2037</v>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2038</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1">
         <f t="shared" si="2"/>
-        <v>4456.3042550249202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41">
-        <v>2043</v>
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>4591.6756793934128</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S41" s="1">
-        <f t="shared" si="1"/>
-        <v>2038</v>
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2039</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1">
         <f t="shared" si="2"/>
-        <v>4478.5857763000658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42">
-        <v>2044</v>
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>4614.6340577903939</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S42" s="1">
-        <f t="shared" si="1"/>
-        <v>2039</v>
+      <c r="S42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2040</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1">
         <f t="shared" si="2"/>
-        <v>4500.9787051815465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43">
-        <v>2045</v>
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>4637.7072280793536</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S43" s="1">
-        <f t="shared" si="1"/>
-        <v>2040</v>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2041</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1">
         <f t="shared" si="2"/>
-        <v>4523.4835987074748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44">
-        <v>2046</v>
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>4660.8957642197201</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S44" s="1">
-        <f t="shared" si="1"/>
-        <v>2041</v>
+      <c r="S44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2042</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1">
         <f t="shared" si="2"/>
-        <v>4546.1010167009972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45">
-        <v>2047</v>
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>4684.2002430408165</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S45" s="1">
-        <f t="shared" si="1"/>
-        <v>2042</v>
+      <c r="S45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2043</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1">
         <f t="shared" si="2"/>
-        <v>4568.831521784502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46">
-        <v>2048</v>
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>4707.6212442560391</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S46" s="1">
-        <f t="shared" si="1"/>
-        <v>2043</v>
+      <c r="S46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2044</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1">
         <f t="shared" si="2"/>
-        <v>4591.6756793934128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47">
-        <v>2049</v>
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>4731.1593504773018</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S47" s="1">
-        <f t="shared" si="1"/>
-        <v>2044</v>
+      <c r="S47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2045</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1">
         <f t="shared" si="2"/>
-        <v>4614.6340577903939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48">
-        <v>2050</v>
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>4754.8151472296922</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S48" s="1">
-        <f t="shared" si="1"/>
-        <v>2045</v>
+      <c r="S48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2046</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1">
         <f t="shared" si="2"/>
-        <v>4637.7072280793536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49">
-        <v>2006</v>
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>3866.3372930580003</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S49" s="1">
-        <f t="shared" si="1"/>
-        <v>2046</v>
+      <c r="S49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2047</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1">
         <f t="shared" si="2"/>
-        <v>4660.8957642197201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50">
-        <v>2007</v>
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>3943.6640389191602</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S50" s="1">
-        <f t="shared" si="1"/>
-        <v>2047</v>
+      <c r="S50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2048</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1">
         <f t="shared" si="2"/>
-        <v>4684.2002430408165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>4022.5373196975429</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S51" s="1">
-        <f t="shared" si="1"/>
-        <v>2048</v>
+      <c r="S51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2049</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1">
         <f t="shared" si="2"/>
-        <v>4707.6212442560391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>4102.9880660914941</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S52" s="1">
-        <f t="shared" si="1"/>
-        <v>2049</v>
+      <c r="S52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2050</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1">
         <f t="shared" si="2"/>
-        <v>4731.1593504773018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>4185.0478274133238</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="1"/>
-        <v>2050</v>
+        <v>REG2</v>
+      </c>
+      <c r="S53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2005</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1">
         <f t="shared" si="2"/>
-        <v>4754.8151472296922</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54">
-        <v>2011</v>
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>4268.7487839615906</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
@@ -3696,54 +3947,54 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1">
         <f t="shared" si="2"/>
-        <v>3866.3372930580003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55">
-        <v>2012</v>
+        <v>30</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>4354.1237596408228</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2007</v>
       </c>
@@ -3752,54 +4003,54 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1">
         <f t="shared" si="2"/>
-        <v>3943.6640389191602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56">
-        <v>2013</v>
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>61</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>4441.2062348336558</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
@@ -3808,54 +4059,54 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1">
         <f t="shared" si="2"/>
-        <v>4022.5373196975429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57">
-        <v>2014</v>
+        <v>30</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>4530.0303595303076</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
@@ -3864,54 +4115,54 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1">
         <f t="shared" si="2"/>
-        <v>4102.9880660914941</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58">
-        <v>2015</v>
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>4620.6309667209289</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
@@ -3920,54 +4171,54 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1">
         <f t="shared" si="2"/>
-        <v>4185.0478274133238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59">
-        <v>2016</v>
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>4713.043586055328</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
@@ -3976,54 +4227,54 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1">
         <f t="shared" si="2"/>
-        <v>4268.7487839615906</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60">
-        <v>2017</v>
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>4807.3044577764604</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
@@ -4032,54 +4283,54 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1">
         <f t="shared" si="2"/>
-        <v>4354.1237596408228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61">
-        <v>2018</v>
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>66</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>4903.4505469319865</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
@@ -4088,54 +4339,54 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1">
         <f t="shared" si="2"/>
-        <v>4441.2062348336558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62">
-        <v>2019</v>
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>5001.5195578706025</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
@@ -4144,54 +4395,54 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1">
         <f t="shared" si="2"/>
-        <v>4530.0303595303076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63">
-        <v>2020</v>
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>5101.5499490280254</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
@@ -4200,54 +4451,54 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1">
         <f t="shared" si="2"/>
-        <v>4620.6309667209289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64">
-        <v>2021</v>
+        <v>30</v>
+      </c>
+      <c r="H64" t="s">
+        <v>69</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M64">
-        <v>5203.5809480085754</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
@@ -4256,54 +4507,54 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1">
         <f t="shared" si="2"/>
-        <v>4713.043586055328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65">
-        <v>2022</v>
+        <v>30</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>5307.6525669687389</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
@@ -4312,54 +4563,54 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1">
         <f t="shared" si="2"/>
-        <v>4807.3044577764604</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66">
-        <v>2023</v>
+        <v>30</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M66">
-        <v>5413.8056183081198</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
@@ -4368,54 +4619,54 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1">
         <f t="shared" si="2"/>
-        <v>4903.4505469319865</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67">
-        <v>2024</v>
+        <v>30</v>
+      </c>
+      <c r="H67" t="s">
+        <v>72</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M67">
-        <v>5522.0817306742993</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
@@ -4424,54 +4675,54 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1">
         <f t="shared" si="2"/>
-        <v>5001.5195578706025</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68">
-        <v>2025</v>
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>5632.5233652877623</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -4480,54 +4731,54 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1">
         <f t="shared" si="2"/>
-        <v>5101.5499490280254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69">
-        <v>2026</v>
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>5660.6859821142325</v>
+        <v>0</v>
       </c>
       <c r="R69" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
@@ -4536,54 +4787,54 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1">
         <f t="shared" si="2"/>
-        <v>5203.5809480085754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70">
-        <v>2027</v>
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>5688.9894120247991</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
@@ -4592,54 +4843,54 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1">
         <f t="shared" si="2"/>
-        <v>5307.6525669687389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71">
-        <v>2028</v>
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>5717.434359084903</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1" t="str">
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
@@ -4648,110 +4899,110 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1">
         <f t="shared" si="2"/>
-        <v>5413.8056183081198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72">
-        <v>2029</v>
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>5746.0215308803254</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" ref="R72:R98" si="3">B67</f>
+        <f t="shared" si="3" ref="R72:R98">B67</f>
         <v>REG2</v>
       </c>
-      <c r="S72" s="1">
-        <f t="shared" ref="S72:S98" si="4">H67</f>
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="4" ref="S72:S98">H67</f>
         <v>2024</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1">
-        <f t="shared" ref="W72:W98" si="5">M67</f>
-        <v>5522.0817306742993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="5" ref="W72:W98">M67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73">
-        <v>2030</v>
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>5774.7516385347317</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2025</v>
       </c>
@@ -4760,54 +5011,54 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1">
         <f t="shared" si="5"/>
-        <v>5632.5233652877623</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74">
-        <v>2031</v>
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>79</v>
       </c>
       <c r="I74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>5803.6253967274197</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2026</v>
       </c>
@@ -4816,54 +5067,54 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1">
         <f t="shared" si="5"/>
-        <v>5660.6859821142325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75">
-        <v>2032</v>
+        <v>30</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
       </c>
       <c r="I75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>5832.64352371105</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2027</v>
       </c>
@@ -4872,54 +5123,54 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1">
         <f t="shared" si="5"/>
-        <v>5688.9894120247991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76">
-        <v>2033</v>
+        <v>30</v>
+      </c>
+      <c r="H76" t="s">
+        <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>5861.8067413295839</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2028</v>
       </c>
@@ -4928,54 +5179,54 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1">
         <f t="shared" si="5"/>
-        <v>5717.434359084903</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77">
-        <v>2034</v>
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>5891.1157750362445</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2029</v>
       </c>
@@ -4984,54 +5235,54 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1">
         <f t="shared" si="5"/>
-        <v>5746.0215308803254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78">
-        <v>2035</v>
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>83</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M78">
-        <v>5920.5713539114104</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2030</v>
       </c>
@@ -5040,54 +5291,54 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1">
         <f t="shared" si="5"/>
-        <v>5774.7516385347317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79">
-        <v>2036</v>
+        <v>30</v>
+      </c>
+      <c r="H79" t="s">
+        <v>84</v>
       </c>
       <c r="I79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M79">
-        <v>5950.1742106809988</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2031</v>
       </c>
@@ -5096,54 +5347,54 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1">
         <f t="shared" si="5"/>
-        <v>5803.6253967274197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80">
-        <v>2037</v>
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>85</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M80">
-        <v>5979.9250817343955</v>
+        <v>0</v>
       </c>
       <c r="R80" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2032</v>
       </c>
@@ -5152,54 +5403,54 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1">
         <f t="shared" si="5"/>
-        <v>5832.64352371105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81">
-        <v>2038</v>
+        <v>30</v>
+      </c>
+      <c r="H81" t="s">
+        <v>86</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M81">
-        <v>6009.824707143066</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2033</v>
       </c>
@@ -5208,54 +5459,54 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1">
         <f t="shared" si="5"/>
-        <v>5861.8067413295839</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82">
-        <v>2039</v>
+        <v>30</v>
+      </c>
+      <c r="H82" t="s">
+        <v>87</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>6039.87383067879</v>
+        <v>0</v>
       </c>
       <c r="R82" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2034</v>
       </c>
@@ -5264,54 +5515,54 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1">
         <f t="shared" si="5"/>
-        <v>5891.1157750362445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83">
-        <v>2040</v>
+        <v>30</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M83">
-        <v>6070.0731998321526</v>
+        <v>0</v>
       </c>
       <c r="R83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2035</v>
       </c>
@@ -5320,54 +5571,54 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1">
         <f t="shared" si="5"/>
-        <v>5920.5713539114104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84">
-        <v>2041</v>
+        <v>30</v>
+      </c>
+      <c r="H84" t="s">
+        <v>89</v>
       </c>
       <c r="I84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M84">
-        <v>6100.4235658313164</v>
+        <v>0</v>
       </c>
       <c r="R84" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2036</v>
       </c>
@@ -5376,54 +5627,54 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1">
         <f t="shared" si="5"/>
-        <v>5950.1742106809988</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85">
-        <v>2042</v>
+        <v>30</v>
+      </c>
+      <c r="H85" t="s">
+        <v>90</v>
       </c>
       <c r="I85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M85">
-        <v>6130.9256836604764</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2037</v>
       </c>
@@ -5432,54 +5683,54 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1">
         <f t="shared" si="5"/>
-        <v>5979.9250817343955</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86">
-        <v>2043</v>
+        <v>30</v>
+      </c>
+      <c r="H86" t="s">
+        <v>91</v>
       </c>
       <c r="I86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M86">
-        <v>6161.5803120787705</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2038</v>
       </c>
@@ -5488,54 +5739,54 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1">
         <f t="shared" si="5"/>
-        <v>6009.824707143066</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87">
-        <v>2044</v>
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>92</v>
       </c>
       <c r="I87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M87">
-        <v>6192.3882136391694</v>
+        <v>0</v>
       </c>
       <c r="R87" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2039</v>
       </c>
@@ -5544,54 +5795,54 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1">
         <f t="shared" si="5"/>
-        <v>6039.87383067879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88">
-        <v>2045</v>
+        <v>30</v>
+      </c>
+      <c r="H88" t="s">
+        <v>93</v>
       </c>
       <c r="I88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M88">
-        <v>6223.3501547073747</v>
+        <v>0</v>
       </c>
       <c r="R88" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
@@ -5600,54 +5851,54 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1">
         <f t="shared" si="5"/>
-        <v>6070.0731998321526</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89">
-        <v>2046</v>
+        <v>30</v>
+      </c>
+      <c r="H89" t="s">
+        <v>94</v>
       </c>
       <c r="I89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M89">
-        <v>6254.4669054809001</v>
+        <v>0</v>
       </c>
       <c r="R89" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2041</v>
       </c>
@@ -5656,54 +5907,54 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1">
         <f t="shared" si="5"/>
-        <v>6100.4235658313164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90">
-        <v>2047</v>
+        <v>30</v>
+      </c>
+      <c r="H90" t="s">
+        <v>95</v>
       </c>
       <c r="I90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M90">
-        <v>6285.7392400083172</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S90" s="1">
+      <c r="S90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2042</v>
       </c>
@@ -5712,54 +5963,54 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1">
         <f t="shared" si="5"/>
-        <v>6130.9256836604764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91">
-        <v>2048</v>
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>96</v>
       </c>
       <c r="I91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M91">
-        <v>6317.1679362083632</v>
+        <v>0</v>
       </c>
       <c r="R91" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2043</v>
       </c>
@@ -5768,54 +6019,54 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1">
         <f t="shared" si="5"/>
-        <v>6161.5803120787705</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92">
-        <v>2049</v>
+        <v>30</v>
+      </c>
+      <c r="H92" t="s">
+        <v>97</v>
       </c>
       <c r="I92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M92">
-        <v>6348.7537758893886</v>
+        <v>0</v>
       </c>
       <c r="R92" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S92" s="1">
+      <c r="S92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2044</v>
       </c>
@@ -5824,54 +6075,54 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1">
         <f t="shared" si="5"/>
-        <v>6192.3882136391694</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93">
-        <v>2050</v>
+        <v>30</v>
+      </c>
+      <c r="H93" t="s">
+        <v>98</v>
       </c>
       <c r="I93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M93">
-        <v>6380.4975447688366</v>
+        <v>0</v>
       </c>
       <c r="R93" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2045</v>
       </c>
@@ -5880,15 +6131,15 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1">
         <f t="shared" si="5"/>
-        <v>6223.3501547073747</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="18:23" ht="15">
       <c r="R94" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2046</v>
       </c>
@@ -5897,15 +6148,15 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1">
         <f t="shared" si="5"/>
-        <v>6254.4669054809001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="18:23" ht="15">
       <c r="R95" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2047</v>
       </c>
@@ -5914,15 +6165,15 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1">
         <f t="shared" si="5"/>
-        <v>6285.7392400083172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="18:23" ht="15">
       <c r="R96" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2048</v>
       </c>
@@ -5931,15 +6182,15 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1">
         <f t="shared" si="5"/>
-        <v>6317.1679362083632</v>
-      </c>
-    </row>
-    <row r="97" spans="18:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="18:23" ht="15">
       <c r="R97" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2049</v>
       </c>
@@ -5948,15 +6199,15 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1">
         <f t="shared" si="5"/>
-        <v>6348.7537758893886</v>
-      </c>
-    </row>
-    <row r="98" spans="18:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="18:23" ht="15">
       <c r="R98" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S98" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2050</v>
       </c>
@@ -5965,7 +6216,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1">
         <f t="shared" si="5"/>
-        <v>6380.4975447688366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5974,28 +6225,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E738D2C-04A8-44A7-9608-813BA02F3F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E738D2C-04A8-44A7-9608-813BA02F3F1E}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="9.14285714285714" style="1"/>
+    <col min="17" max="17" width="24.1428571428571" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.14285714285714" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="8.71428571428571" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85714285714286" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6036,92 +6287,92 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>2005</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2">
-        <v>1134.680662</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>2005</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3">
-        <v>1115.4324961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -6136,10 +6387,10 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="U4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -6154,13 +6405,13 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="Q5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>8</v>
@@ -6169,16 +6420,16 @@
         <v>6</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="15">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6193,7 +6444,7 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="Q6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>9</v>
@@ -6208,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6226,16 +6477,16 @@
         <f>IF(B2="","",B2)</f>
         <v>REG1</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="str">
         <f>IF(H2="","",H2)</f>
         <v>2005</v>
       </c>
       <c r="W7" s="1">
         <f>IF(M2="","",M2)</f>
-        <v>1134.680662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6250,19 +6501,19 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="R8" s="1" t="str">
-        <f t="shared" ref="R8:R71" si="0">IF(B3="","",B3)</f>
+        <f t="shared" si="0" ref="R8:R71">IF(B3="","",B3)</f>
         <v>REG2</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:S71" si="1">IF(H3="","",H3)</f>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="1" ref="S8:S71">IF(H3="","",H3)</f>
         <v>2005</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8:W71" si="2">IF(M3="","",M3)</f>
-        <v>1115.4324961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2" ref="W8:W71">IF(M3="","",M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6289,7 +6540,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6316,7 +6567,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6343,7 +6594,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6370,7 +6621,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6397,7 +6648,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6424,7 +6675,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6451,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6478,7 +6729,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6505,7 +6756,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -6532,7 +6783,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6559,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6586,7 +6837,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6613,7 +6864,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6640,7 +6891,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6667,7 +6918,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6694,7 +6945,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6721,7 +6972,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6748,7 +6999,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6775,7 +7026,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6802,7 +7053,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6829,7 +7080,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6856,7 +7107,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6883,7 +7134,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -6910,7 +7161,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -6937,7 +7188,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -6964,7 +7215,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6991,7 +7242,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7018,7 +7269,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7045,7 +7296,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -7072,7 +7323,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -7099,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7126,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -7153,7 +7404,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7180,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7207,7 +7458,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7234,7 +7485,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7261,7 +7512,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7288,7 +7539,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -7315,7 +7566,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7342,7 +7593,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7369,7 +7620,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -7396,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7423,7 +7674,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7450,7 +7701,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -7477,7 +7728,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7504,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -7531,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -7558,7 +7809,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -7585,7 +7836,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -7612,7 +7863,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -7639,7 +7890,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -7666,7 +7917,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -7693,7 +7944,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -7720,7 +7971,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -7747,7 +7998,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -7774,7 +8025,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -7801,7 +8052,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -7828,7 +8079,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -7855,7 +8106,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -7882,7 +8133,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -7909,7 +8160,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -7936,7 +8187,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -7963,7 +8214,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -7978,19 +8229,19 @@
       <c r="L72"/>
       <c r="M72"/>
       <c r="R72" s="1" t="str">
-        <f t="shared" ref="R72:R98" si="3">IF(B67="","",B67)</f>
+        <f t="shared" si="3" ref="R72:R98">IF(B67="","",B67)</f>
         <v/>
       </c>
       <c r="S72" s="1" t="str">
-        <f t="shared" ref="S72:S98" si="4">IF(H67="","",H67)</f>
+        <f t="shared" si="4" ref="S72:S98">IF(H67="","",H67)</f>
         <v/>
       </c>
       <c r="W72" s="1" t="str">
-        <f t="shared" ref="W72:W98" si="5">IF(M67="","",M67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="5" ref="W72:W98">IF(M67="","",M67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -8017,7 +8268,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -8044,7 +8295,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -8071,7 +8322,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -8098,7 +8349,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -8125,7 +8376,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -8152,7 +8403,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -8179,7 +8430,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -8206,7 +8457,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -8233,7 +8484,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -8260,7 +8511,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -8287,7 +8538,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -8314,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -8341,7 +8592,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -8368,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -8395,7 +8646,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -8422,7 +8673,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -8449,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -8476,7 +8727,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -8503,7 +8754,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -8530,7 +8781,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8557,7 +8808,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:23" ht="15">
       <c r="R94" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8571,7 +8822,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:23" ht="15">
       <c r="R95" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8585,7 +8836,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:23" ht="15">
       <c r="R96" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8599,7 +8850,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:23" ht="15">
       <c r="R97" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8613,7 +8864,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:23" ht="15">
       <c r="R98" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8633,22 +8884,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
   <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1428571428571" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8658,7 +8909,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -8672,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -8680,7 +8931,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8699,15 +8950,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -8718,25 +8969,25 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15">
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8757,7 +9008,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8779,10 +9030,10 @@
         <v>0.33</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8801,10 +9052,10 @@
         <v>999</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
         <v>10</v>
@@ -8816,16 +9067,16 @@
         <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s">
         <v>39</v>
       </c>
-      <c r="S14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:19" ht="15">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -8848,7 +9099,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="str">
@@ -8867,7 +9118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="15">
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
@@ -8895,29 +9146,29 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-0.50</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15"/>
+    <row r="18" s="1" customFormat="1" ht="15"/>
+    <row r="19" s="1" customFormat="1" ht="15"/>
+    <row r="20" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8925,7 +9176,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -8945,12 +9196,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15">
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/suppxls/Scen_ShellImprovement-setup.xlsx
+++ b/suppxls/Scen_ShellImprovement-setup.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C090C30A-9530-4F36-B8AC-FDE8021DB775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
-    <sheet name="basedem_drsh" sheetId="18" r:id="rId2"/>
-    <sheet name="basedem_drot" sheetId="19" r:id="rId3"/>
-    <sheet name="veda" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="basedem_drsh" sheetId="18" r:id="rId4"/>
+    <sheet name="basedem_drot" sheetId="19" r:id="rId5"/>
+    <sheet name="veda" sheetId="16" r:id="rId6"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="100">
   <si>
     <t>Attribute</t>
   </si>
@@ -134,67 +134,205 @@
     <t>REG2</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>UC_RSHDemand</t>
+  </si>
+  <si>
+    <t>UC_ACT</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: REG1,REG2</t>
+  </si>
+  <si>
+    <t>UC_RHSRT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~0</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>~UC_T: LO</t>
+  </si>
+  <si>
+    <t>DROT</t>
+  </si>
+  <si>
+    <t>ShellImp_hp</t>
+  </si>
+  <si>
+    <t>~TFM_FILL-R: w=basedem_drot</t>
+  </si>
+  <si>
+    <t>~TFM_FILL-R: w=basedem_drsh</t>
+  </si>
+  <si>
+    <t>UC_ROTDemand</t>
+  </si>
+  <si>
+    <t>PSET_CI</t>
+  </si>
+  <si>
+    <t>DRSH,DROT</t>
+  </si>
+  <si>
+    <t>UC_shell_link_hp</t>
+  </si>
+  <si>
+    <t>UC_COMPRD</t>
+  </si>
+  <si>
+    <t>~UC_T: FX</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>DEM_Ref</t>
-  </si>
-  <si>
-    <t>UC_N</t>
-  </si>
-  <si>
-    <t>UC_RSHDemand</t>
-  </si>
-  <si>
-    <t>UC_ACT</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>~UC_Sets: R_E: REG1,REG2</t>
-  </si>
-  <si>
-    <t>UC_RHSRT</t>
-  </si>
-  <si>
-    <t>UC_RHSRT~0</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>~UC_T: LO</t>
-  </si>
-  <si>
-    <t>DROT</t>
-  </si>
-  <si>
-    <t>ShellImp_hp</t>
-  </si>
-  <si>
-    <t>~TFM_FILL-R: w=basedem_drot</t>
-  </si>
-  <si>
-    <t>~TFM_FILL-R: w=basedem_drsh</t>
-  </si>
-  <si>
-    <t>UC_ROTDemand</t>
-  </si>
-  <si>
-    <t>PSET_CI</t>
-  </si>
-  <si>
-    <t>DRSH,DROT</t>
-  </si>
-  <si>
-    <t>UC_shell_link_hp</t>
-  </si>
-  <si>
-    <t>UC_COMPRD</t>
-  </si>
-  <si>
-    <t>~UC_T: FX</t>
   </si>
 </sst>
 </file>
@@ -204,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,24 +352,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,60 +384,181 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 9 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normale_B2020" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Percent 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Percent 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Percent 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Percent 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Comma 2" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="22"/>
+    <cellStyle name="Normal 3" xfId="23"/>
+    <cellStyle name="Normal 4" xfId="24"/>
+    <cellStyle name="Normal 4 2" xfId="25"/>
+    <cellStyle name="Normal 8" xfId="26"/>
+    <cellStyle name="Normal 9 2" xfId="27"/>
+    <cellStyle name="Normale_B2020" xfId="28"/>
+    <cellStyle name="Percent 2" xfId="29"/>
+    <cellStyle name="Percent 3" xfId="30"/>
+    <cellStyle name="Percent 3 2" xfId="31"/>
+    <cellStyle name="Percent 3 3" xfId="32"/>
+    <cellStyle name="Percent 4" xfId="33"/>
+    <cellStyle name="Percent 4 2" xfId="34"/>
+    <cellStyle name="Percent 4 3" xfId="35"/>
+    <cellStyle name="Percent 5" xfId="36"/>
+    <cellStyle name="Percent 5 2" xfId="37"/>
+    <cellStyle name="Percent 6" xfId="38"/>
+    <cellStyle name="Percent 7" xfId="39"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="40"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -636,21 +890,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16434-42CB-4657-81C1-D4CE1BD7CEFC}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -661,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -672,14 +926,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15">
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -707,23 +961,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4D08F-EE8B-406E-B00C-DD02252CEDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4D08F-EE8B-406E-B00C-DD02252CEDE8}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.14285714285714" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85714285714286" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -764,7 +1018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -786,8 +1040,8 @@
       <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2">
-        <v>2005</v>
+      <c r="H2" t="s">
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -808,7 +1062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -830,8 +1084,8 @@
       <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3">
-        <v>2005</v>
+      <c r="H3" t="s">
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -849,9 +1103,9 @@
         <v>3790.5267579000001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -871,8 +1125,8 @@
       <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4">
-        <v>2006</v>
+      <c r="H4" t="s">
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -893,9 +1147,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -915,8 +1169,8 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
-        <v>2007</v>
+      <c r="H5" t="s">
+        <v>98</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -958,9 +1212,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -980,8 +1234,8 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
-        <v>2008</v>
+      <c r="H6" t="s">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -1014,9 +1268,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1036,8 +1290,8 @@
       <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>2009</v>
+      <c r="H7" t="s">
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1058,7 +1312,7 @@
         <f>B2</f>
         <v>REG1</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="str">
         <f>H2</f>
         <v>2005</v>
       </c>
@@ -1067,9 +1321,9 @@
         <v>3439.9697059999999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1089,8 +1343,8 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8">
-        <v>2010</v>
+      <c r="H8" t="s">
+        <v>95</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -1108,24 +1362,24 @@
         <v>3615.4427330455419</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" ref="R8:R71" si="0">B3</f>
+        <f t="shared" si="0" ref="R8:R71">B3</f>
         <v>REG2</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:S71" si="1">H3</f>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="1" ref="S8:S71">H3</f>
         <v>2005</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <f t="shared" ref="W8:W71" si="2">M3</f>
+        <f t="shared" si="2" ref="W8:W71">M3</f>
         <v>3790.5267579000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1145,8 +1399,8 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9">
-        <v>2011</v>
+      <c r="H9" t="s">
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>
@@ -1167,7 +1421,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
@@ -1179,9 +1433,9 @@
         <v>3474.36940306</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1201,8 +1455,8 @@
       <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H10">
-        <v>2012</v>
+      <c r="H10" t="s">
+        <v>93</v>
       </c>
       <c r="I10" t="s">
         <v>31</v>
@@ -1223,7 +1477,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2007</v>
       </c>
@@ -1235,9 +1489,9 @@
         <v>3509.1130970905997</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1257,8 +1511,8 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11">
-        <v>2013</v>
+      <c r="H11" t="s">
+        <v>92</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
@@ -1279,7 +1533,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
@@ -1291,9 +1545,9 @@
         <v>3544.2042280615055</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1313,8 +1567,8 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
-        <v>2014</v>
+      <c r="H12" t="s">
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
@@ -1335,7 +1589,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
@@ -1347,9 +1601,9 @@
         <v>3579.6462703421212</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1369,8 +1623,8 @@
       <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>2015</v>
+      <c r="H13" t="s">
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>31</v>
@@ -1391,7 +1645,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
@@ -1403,9 +1657,9 @@
         <v>3615.4427330455419</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1425,8 +1679,8 @@
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14">
-        <v>2016</v>
+      <c r="H14" t="s">
+        <v>89</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1447,7 +1701,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
@@ -1459,9 +1713,9 @@
         <v>3651.5971603759972</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1481,8 +1735,8 @@
       <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="H15">
-        <v>2017</v>
+      <c r="H15" t="s">
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>31</v>
@@ -1503,7 +1757,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
@@ -1515,9 +1769,9 @@
         <v>3688.1131319797578</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -1537,8 +1791,8 @@
       <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16">
-        <v>2018</v>
+      <c r="H16" t="s">
+        <v>87</v>
       </c>
       <c r="I16" t="s">
         <v>31</v>
@@ -1559,7 +1813,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
@@ -1571,9 +1825,9 @@
         <v>3724.9942632995549</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1593,8 +1847,8 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17">
-        <v>2019</v>
+      <c r="H17" t="s">
+        <v>86</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1615,7 +1869,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
@@ -1627,9 +1881,9 @@
         <v>3762.2442059325476</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1649,8 +1903,8 @@
       <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="H18">
-        <v>2020</v>
+      <c r="H18" t="s">
+        <v>85</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1671,7 +1925,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
@@ -1683,9 +1937,9 @@
         <v>3799.8666479918611</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1705,8 +1959,8 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19">
-        <v>2021</v>
+      <c r="H19" t="s">
+        <v>84</v>
       </c>
       <c r="I19" t="s">
         <v>31</v>
@@ -1727,7 +1981,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
@@ -1739,9 +1993,9 @@
         <v>3837.8653144718073</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1761,8 +2015,8 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20">
-        <v>2022</v>
+      <c r="H20" t="s">
+        <v>83</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
@@ -1783,7 +2037,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
@@ -1795,9 +2049,9 @@
         <v>3876.2439676165136</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1817,8 +2071,8 @@
       <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="H21">
-        <v>2023</v>
+      <c r="H21" t="s">
+        <v>82</v>
       </c>
       <c r="I21" t="s">
         <v>31</v>
@@ -1839,7 +2093,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
@@ -1851,9 +2105,9 @@
         <v>3915.0064072926798</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1873,8 +2127,8 @@
       <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="H22">
-        <v>2024</v>
+      <c r="H22" t="s">
+        <v>81</v>
       </c>
       <c r="I22" t="s">
         <v>31</v>
@@ -1895,7 +2149,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
@@ -1907,9 +2161,9 @@
         <v>3954.1564713655966</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1929,8 +2183,8 @@
       <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="H23">
-        <v>2025</v>
+      <c r="H23" t="s">
+        <v>80</v>
       </c>
       <c r="I23" t="s">
         <v>31</v>
@@ -1951,7 +2205,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -1963,9 +2217,9 @@
         <v>3993.6980360792659</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1985,8 +2239,8 @@
       <c r="G24" t="s">
         <v>31</v>
       </c>
-      <c r="H24">
-        <v>2026</v>
+      <c r="H24" t="s">
+        <v>79</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
@@ -2007,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
@@ -2019,9 +2273,9 @@
         <v>4033.6350164400583</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2041,8 +2295,8 @@
       <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="H25">
-        <v>2027</v>
+      <c r="H25" t="s">
+        <v>78</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -2063,7 +2317,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
@@ -2075,9 +2329,9 @@
         <v>4073.9713666044695</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2097,8 +2351,8 @@
       <c r="G26" t="s">
         <v>31</v>
       </c>
-      <c r="H26">
-        <v>2028</v>
+      <c r="H26" t="s">
+        <v>77</v>
       </c>
       <c r="I26" t="s">
         <v>31</v>
@@ -2119,7 +2373,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
@@ -2131,9 +2385,9 @@
         <v>4114.711080270481</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -2153,8 +2407,8 @@
       <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H27">
-        <v>2029</v>
+      <c r="H27" t="s">
+        <v>76</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
@@ -2175,7 +2429,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
@@ -2187,9 +2441,9 @@
         <v>4155.8581910731982</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2209,8 +2463,8 @@
       <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="H28">
-        <v>2030</v>
+      <c r="H28" t="s">
+        <v>75</v>
       </c>
       <c r="I28" t="s">
         <v>31</v>
@@ -2231,7 +2485,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
@@ -2243,9 +2497,9 @@
         <v>4197.4167729839464</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2265,8 +2519,8 @@
       <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="H29">
-        <v>2031</v>
+      <c r="H29" t="s">
+        <v>74</v>
       </c>
       <c r="I29" t="s">
         <v>31</v>
@@ -2287,7 +2541,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
@@ -2299,9 +2553,9 @@
         <v>4218.4038568488668</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2321,8 +2575,8 @@
       <c r="G30" t="s">
         <v>31</v>
       </c>
-      <c r="H30">
-        <v>2032</v>
+      <c r="H30" t="s">
+        <v>73</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
@@ -2343,7 +2597,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
@@ -2355,9 +2609,9 @@
         <v>4239.4958761330818</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2377,8 +2631,8 @@
       <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="H31">
-        <v>2033</v>
+      <c r="H31" t="s">
+        <v>72</v>
       </c>
       <c r="I31" t="s">
         <v>31</v>
@@ -2399,7 +2653,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
@@ -2411,9 +2665,9 @@
         <v>4260.6933555137739</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -2433,8 +2687,8 @@
       <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="H32">
-        <v>2034</v>
+      <c r="H32" t="s">
+        <v>71</v>
       </c>
       <c r="I32" t="s">
         <v>31</v>
@@ -2455,7 +2709,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
@@ -2467,9 +2721,9 @@
         <v>4281.996822291344</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2489,8 +2743,8 @@
       <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="H33">
-        <v>2035</v>
+      <c r="H33" t="s">
+        <v>70</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
@@ -2511,7 +2765,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
@@ -2523,9 +2777,9 @@
         <v>4303.4068064027906</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2545,8 +2799,8 @@
       <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="H34">
-        <v>2036</v>
+      <c r="H34" t="s">
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
@@ -2567,7 +2821,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
@@ -2579,9 +2833,9 @@
         <v>4324.9238404347861</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -2601,8 +2855,8 @@
       <c r="G35" t="s">
         <v>31</v>
       </c>
-      <c r="H35">
-        <v>2037</v>
+      <c r="H35" t="s">
+        <v>68</v>
       </c>
       <c r="I35" t="s">
         <v>31</v>
@@ -2623,7 +2877,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
@@ -2635,9 +2889,9 @@
         <v>4346.5484596369824</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -2657,8 +2911,8 @@
       <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="H36">
-        <v>2038</v>
+      <c r="H36" t="s">
+        <v>67</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
@@ -2679,7 +2933,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
@@ -2691,9 +2945,9 @@
         <v>4368.2812019351604</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -2713,8 +2967,8 @@
       <c r="G37" t="s">
         <v>31</v>
       </c>
-      <c r="H37">
-        <v>2039</v>
+      <c r="H37" t="s">
+        <v>66</v>
       </c>
       <c r="I37" t="s">
         <v>31</v>
@@ -2735,7 +2989,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
@@ -2747,9 +3001,9 @@
         <v>4390.1226079448452</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -2769,8 +3023,8 @@
       <c r="G38" t="s">
         <v>31</v>
       </c>
-      <c r="H38">
-        <v>2040</v>
+      <c r="H38" t="s">
+        <v>65</v>
       </c>
       <c r="I38" t="s">
         <v>31</v>
@@ -2791,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
@@ -2803,9 +3057,9 @@
         <v>4412.0732209845519</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -2825,8 +3079,8 @@
       <c r="G39" t="s">
         <v>31</v>
       </c>
-      <c r="H39">
-        <v>2041</v>
+      <c r="H39" t="s">
+        <v>64</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
@@ -2847,7 +3101,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
@@ -2859,9 +3113,9 @@
         <v>4434.1335870894782</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2881,8 +3135,8 @@
       <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="H40">
-        <v>2042</v>
+      <c r="H40" t="s">
+        <v>63</v>
       </c>
       <c r="I40" t="s">
         <v>31</v>
@@ -2903,7 +3157,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
@@ -2915,9 +3169,9 @@
         <v>4456.3042550249202</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -2937,8 +3191,8 @@
       <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="H41">
-        <v>2043</v>
+      <c r="H41" t="s">
+        <v>62</v>
       </c>
       <c r="I41" t="s">
         <v>31</v>
@@ -2959,7 +3213,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
@@ -2971,9 +3225,9 @@
         <v>4478.5857763000658</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -2993,8 +3247,8 @@
       <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="H42">
-        <v>2044</v>
+      <c r="H42" t="s">
+        <v>61</v>
       </c>
       <c r="I42" t="s">
         <v>31</v>
@@ -3015,7 +3269,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
@@ -3027,9 +3281,9 @@
         <v>4500.9787051815465</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -3049,8 +3303,8 @@
       <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="H43">
-        <v>2045</v>
+      <c r="H43" t="s">
+        <v>60</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
@@ -3071,7 +3325,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
@@ -3083,9 +3337,9 @@
         <v>4523.4835987074748</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -3105,8 +3359,8 @@
       <c r="G44" t="s">
         <v>31</v>
       </c>
-      <c r="H44">
-        <v>2046</v>
+      <c r="H44" t="s">
+        <v>59</v>
       </c>
       <c r="I44" t="s">
         <v>31</v>
@@ -3127,7 +3381,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
@@ -3139,9 +3393,9 @@
         <v>4546.1010167009972</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
@@ -3161,8 +3415,8 @@
       <c r="G45" t="s">
         <v>31</v>
       </c>
-      <c r="H45">
-        <v>2047</v>
+      <c r="H45" t="s">
+        <v>58</v>
       </c>
       <c r="I45" t="s">
         <v>31</v>
@@ -3183,7 +3437,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
@@ -3195,9 +3449,9 @@
         <v>4568.831521784502</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
@@ -3217,8 +3471,8 @@
       <c r="G46" t="s">
         <v>31</v>
       </c>
-      <c r="H46">
-        <v>2048</v>
+      <c r="H46" t="s">
+        <v>57</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
@@ -3239,7 +3493,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
@@ -3251,9 +3505,9 @@
         <v>4591.6756793934128</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
@@ -3273,8 +3527,8 @@
       <c r="G47" t="s">
         <v>31</v>
       </c>
-      <c r="H47">
-        <v>2049</v>
+      <c r="H47" t="s">
+        <v>56</v>
       </c>
       <c r="I47" t="s">
         <v>31</v>
@@ -3295,7 +3549,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
@@ -3307,9 +3561,9 @@
         <v>4614.6340577903939</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
@@ -3329,8 +3583,8 @@
       <c r="G48" t="s">
         <v>31</v>
       </c>
-      <c r="H48">
-        <v>2050</v>
+      <c r="H48" t="s">
+        <v>55</v>
       </c>
       <c r="I48" t="s">
         <v>31</v>
@@ -3351,7 +3605,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2045</v>
       </c>
@@ -3363,9 +3617,9 @@
         <v>4637.7072280793536</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -3385,8 +3639,8 @@
       <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="H49">
-        <v>2006</v>
+      <c r="H49" t="s">
+        <v>54</v>
       </c>
       <c r="I49" t="s">
         <v>31</v>
@@ -3407,7 +3661,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
@@ -3419,9 +3673,9 @@
         <v>4660.8957642197201</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -3441,8 +3695,8 @@
       <c r="G50" t="s">
         <v>31</v>
       </c>
-      <c r="H50">
-        <v>2007</v>
+      <c r="H50" t="s">
+        <v>98</v>
       </c>
       <c r="I50" t="s">
         <v>31</v>
@@ -3463,7 +3717,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
@@ -3475,9 +3729,9 @@
         <v>4684.2002430408165</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -3497,8 +3751,8 @@
       <c r="G51" t="s">
         <v>31</v>
       </c>
-      <c r="H51">
-        <v>2008</v>
+      <c r="H51" t="s">
+        <v>97</v>
       </c>
       <c r="I51" t="s">
         <v>31</v>
@@ -3519,7 +3773,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
@@ -3531,9 +3785,9 @@
         <v>4707.6212442560391</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -3553,8 +3807,8 @@
       <c r="G52" t="s">
         <v>31</v>
       </c>
-      <c r="H52">
-        <v>2009</v>
+      <c r="H52" t="s">
+        <v>96</v>
       </c>
       <c r="I52" t="s">
         <v>31</v>
@@ -3575,7 +3829,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2049</v>
       </c>
@@ -3587,9 +3841,9 @@
         <v>4731.1593504773018</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -3609,8 +3863,8 @@
       <c r="G53" t="s">
         <v>31</v>
       </c>
-      <c r="H53">
-        <v>2010</v>
+      <c r="H53" t="s">
+        <v>95</v>
       </c>
       <c r="I53" t="s">
         <v>31</v>
@@ -3631,7 +3885,7 @@
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2050</v>
       </c>
@@ -3643,9 +3897,9 @@
         <v>4754.8151472296922</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -3665,8 +3919,8 @@
       <c r="G54" t="s">
         <v>31</v>
       </c>
-      <c r="H54">
-        <v>2011</v>
+      <c r="H54" t="s">
+        <v>94</v>
       </c>
       <c r="I54" t="s">
         <v>31</v>
@@ -3687,7 +3941,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
@@ -3699,9 +3953,9 @@
         <v>3866.3372930580003</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -3721,8 +3975,8 @@
       <c r="G55" t="s">
         <v>31</v>
       </c>
-      <c r="H55">
-        <v>2012</v>
+      <c r="H55" t="s">
+        <v>93</v>
       </c>
       <c r="I55" t="s">
         <v>31</v>
@@ -3743,7 +3997,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2007</v>
       </c>
@@ -3755,9 +4009,9 @@
         <v>3943.6640389191602</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -3777,8 +4031,8 @@
       <c r="G56" t="s">
         <v>31</v>
       </c>
-      <c r="H56">
-        <v>2013</v>
+      <c r="H56" t="s">
+        <v>92</v>
       </c>
       <c r="I56" t="s">
         <v>31</v>
@@ -3799,7 +4053,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
@@ -3811,9 +4065,9 @@
         <v>4022.5373196975429</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -3833,8 +4087,8 @@
       <c r="G57" t="s">
         <v>31</v>
       </c>
-      <c r="H57">
-        <v>2014</v>
+      <c r="H57" t="s">
+        <v>91</v>
       </c>
       <c r="I57" t="s">
         <v>31</v>
@@ -3855,7 +4109,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
@@ -3867,9 +4121,9 @@
         <v>4102.9880660914941</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -3889,8 +4143,8 @@
       <c r="G58" t="s">
         <v>31</v>
       </c>
-      <c r="H58">
-        <v>2015</v>
+      <c r="H58" t="s">
+        <v>90</v>
       </c>
       <c r="I58" t="s">
         <v>31</v>
@@ -3911,7 +4165,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
@@ -3923,9 +4177,9 @@
         <v>4185.0478274133238</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -3945,8 +4199,8 @@
       <c r="G59" t="s">
         <v>31</v>
       </c>
-      <c r="H59">
-        <v>2016</v>
+      <c r="H59" t="s">
+        <v>89</v>
       </c>
       <c r="I59" t="s">
         <v>31</v>
@@ -3967,7 +4221,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
@@ -3979,9 +4233,9 @@
         <v>4268.7487839615906</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -4001,8 +4255,8 @@
       <c r="G60" t="s">
         <v>31</v>
       </c>
-      <c r="H60">
-        <v>2017</v>
+      <c r="H60" t="s">
+        <v>88</v>
       </c>
       <c r="I60" t="s">
         <v>31</v>
@@ -4023,7 +4277,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
@@ -4035,9 +4289,9 @@
         <v>4354.1237596408228</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -4057,8 +4311,8 @@
       <c r="G61" t="s">
         <v>31</v>
       </c>
-      <c r="H61">
-        <v>2018</v>
+      <c r="H61" t="s">
+        <v>87</v>
       </c>
       <c r="I61" t="s">
         <v>31</v>
@@ -4079,7 +4333,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
@@ -4091,9 +4345,9 @@
         <v>4441.2062348336558</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -4113,8 +4367,8 @@
       <c r="G62" t="s">
         <v>31</v>
       </c>
-      <c r="H62">
-        <v>2019</v>
+      <c r="H62" t="s">
+        <v>86</v>
       </c>
       <c r="I62" t="s">
         <v>31</v>
@@ -4135,7 +4389,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
@@ -4147,9 +4401,9 @@
         <v>4530.0303595303076</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
@@ -4169,8 +4423,8 @@
       <c r="G63" t="s">
         <v>31</v>
       </c>
-      <c r="H63">
-        <v>2020</v>
+      <c r="H63" t="s">
+        <v>85</v>
       </c>
       <c r="I63" t="s">
         <v>31</v>
@@ -4191,7 +4445,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
@@ -4203,9 +4457,9 @@
         <v>4620.6309667209289</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
@@ -4225,8 +4479,8 @@
       <c r="G64" t="s">
         <v>31</v>
       </c>
-      <c r="H64">
-        <v>2021</v>
+      <c r="H64" t="s">
+        <v>84</v>
       </c>
       <c r="I64" t="s">
         <v>31</v>
@@ -4247,7 +4501,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
@@ -4259,9 +4513,9 @@
         <v>4713.043586055328</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
@@ -4281,8 +4535,8 @@
       <c r="G65" t="s">
         <v>31</v>
       </c>
-      <c r="H65">
-        <v>2022</v>
+      <c r="H65" t="s">
+        <v>83</v>
       </c>
       <c r="I65" t="s">
         <v>31</v>
@@ -4303,7 +4557,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
@@ -4315,9 +4569,9 @@
         <v>4807.3044577764604</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
@@ -4337,8 +4591,8 @@
       <c r="G66" t="s">
         <v>31</v>
       </c>
-      <c r="H66">
-        <v>2023</v>
+      <c r="H66" t="s">
+        <v>82</v>
       </c>
       <c r="I66" t="s">
         <v>31</v>
@@ -4359,7 +4613,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
@@ -4371,9 +4625,9 @@
         <v>4903.4505469319865</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
@@ -4393,8 +4647,8 @@
       <c r="G67" t="s">
         <v>31</v>
       </c>
-      <c r="H67">
-        <v>2024</v>
+      <c r="H67" t="s">
+        <v>81</v>
       </c>
       <c r="I67" t="s">
         <v>31</v>
@@ -4415,7 +4669,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
@@ -4427,9 +4681,9 @@
         <v>5001.5195578706025</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
@@ -4449,8 +4703,8 @@
       <c r="G68" t="s">
         <v>31</v>
       </c>
-      <c r="H68">
-        <v>2025</v>
+      <c r="H68" t="s">
+        <v>80</v>
       </c>
       <c r="I68" t="s">
         <v>31</v>
@@ -4471,7 +4725,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -4483,9 +4737,9 @@
         <v>5101.5499490280254</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
         <v>32</v>
@@ -4505,8 +4759,8 @@
       <c r="G69" t="s">
         <v>31</v>
       </c>
-      <c r="H69">
-        <v>2026</v>
+      <c r="H69" t="s">
+        <v>79</v>
       </c>
       <c r="I69" t="s">
         <v>31</v>
@@ -4527,7 +4781,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
@@ -4539,9 +4793,9 @@
         <v>5203.5809480085754</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
@@ -4561,8 +4815,8 @@
       <c r="G70" t="s">
         <v>31</v>
       </c>
-      <c r="H70">
-        <v>2027</v>
+      <c r="H70" t="s">
+        <v>78</v>
       </c>
       <c r="I70" t="s">
         <v>31</v>
@@ -4583,7 +4837,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
@@ -4595,9 +4849,9 @@
         <v>5307.6525669687389</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
@@ -4617,8 +4871,8 @@
       <c r="G71" t="s">
         <v>31</v>
       </c>
-      <c r="H71">
-        <v>2028</v>
+      <c r="H71" t="s">
+        <v>77</v>
       </c>
       <c r="I71" t="s">
         <v>31</v>
@@ -4639,7 +4893,7 @@
         <f t="shared" si="0"/>
         <v>REG2</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
@@ -4651,9 +4905,9 @@
         <v>5413.8056183081198</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -4673,8 +4927,8 @@
       <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="H72">
-        <v>2029</v>
+      <c r="H72" t="s">
+        <v>76</v>
       </c>
       <c r="I72" t="s">
         <v>31</v>
@@ -4692,24 +4946,24 @@
         <v>5746.0215308803254</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" ref="R72:R98" si="3">B67</f>
+        <f t="shared" si="3" ref="R72:R98">B67</f>
         <v>REG2</v>
       </c>
-      <c r="S72" s="1">
-        <f t="shared" ref="S72:S98" si="4">H67</f>
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="4" ref="S72:S98">H67</f>
         <v>2024</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1">
-        <f t="shared" ref="W72:W98" si="5">M67</f>
+        <f t="shared" si="5" ref="W72:W98">M67</f>
         <v>5522.0817306742993</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -4729,8 +4983,8 @@
       <c r="G73" t="s">
         <v>31</v>
       </c>
-      <c r="H73">
-        <v>2030</v>
+      <c r="H73" t="s">
+        <v>75</v>
       </c>
       <c r="I73" t="s">
         <v>31</v>
@@ -4751,7 +5005,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2025</v>
       </c>
@@ -4763,9 +5017,9 @@
         <v>5632.5233652877623</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -4785,8 +5039,8 @@
       <c r="G74" t="s">
         <v>31</v>
       </c>
-      <c r="H74">
-        <v>2031</v>
+      <c r="H74" t="s">
+        <v>74</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
@@ -4807,7 +5061,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2026</v>
       </c>
@@ -4819,9 +5073,9 @@
         <v>5660.6859821142325</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -4841,8 +5095,8 @@
       <c r="G75" t="s">
         <v>31</v>
       </c>
-      <c r="H75">
-        <v>2032</v>
+      <c r="H75" t="s">
+        <v>73</v>
       </c>
       <c r="I75" t="s">
         <v>31</v>
@@ -4863,7 +5117,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2027</v>
       </c>
@@ -4875,9 +5129,9 @@
         <v>5688.9894120247991</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -4897,8 +5151,8 @@
       <c r="G76" t="s">
         <v>31</v>
       </c>
-      <c r="H76">
-        <v>2033</v>
+      <c r="H76" t="s">
+        <v>72</v>
       </c>
       <c r="I76" t="s">
         <v>31</v>
@@ -4919,7 +5173,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2028</v>
       </c>
@@ -4931,9 +5185,9 @@
         <v>5717.434359084903</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
@@ -4953,8 +5207,8 @@
       <c r="G77" t="s">
         <v>31</v>
       </c>
-      <c r="H77">
-        <v>2034</v>
+      <c r="H77" t="s">
+        <v>71</v>
       </c>
       <c r="I77" t="s">
         <v>31</v>
@@ -4975,7 +5229,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2029</v>
       </c>
@@ -4987,9 +5241,9 @@
         <v>5746.0215308803254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
@@ -5009,8 +5263,8 @@
       <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="H78">
-        <v>2035</v>
+      <c r="H78" t="s">
+        <v>70</v>
       </c>
       <c r="I78" t="s">
         <v>31</v>
@@ -5031,7 +5285,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2030</v>
       </c>
@@ -5043,9 +5297,9 @@
         <v>5774.7516385347317</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
@@ -5065,8 +5319,8 @@
       <c r="G79" t="s">
         <v>31</v>
       </c>
-      <c r="H79">
-        <v>2036</v>
+      <c r="H79" t="s">
+        <v>69</v>
       </c>
       <c r="I79" t="s">
         <v>31</v>
@@ -5087,7 +5341,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2031</v>
       </c>
@@ -5099,9 +5353,9 @@
         <v>5803.6253967274197</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>32</v>
@@ -5121,8 +5375,8 @@
       <c r="G80" t="s">
         <v>31</v>
       </c>
-      <c r="H80">
-        <v>2037</v>
+      <c r="H80" t="s">
+        <v>68</v>
       </c>
       <c r="I80" t="s">
         <v>31</v>
@@ -5143,7 +5397,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2032</v>
       </c>
@@ -5155,9 +5409,9 @@
         <v>5832.64352371105</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>32</v>
@@ -5177,8 +5431,8 @@
       <c r="G81" t="s">
         <v>31</v>
       </c>
-      <c r="H81">
-        <v>2038</v>
+      <c r="H81" t="s">
+        <v>67</v>
       </c>
       <c r="I81" t="s">
         <v>31</v>
@@ -5199,7 +5453,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2033</v>
       </c>
@@ -5211,9 +5465,9 @@
         <v>5861.8067413295839</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
@@ -5233,8 +5487,8 @@
       <c r="G82" t="s">
         <v>31</v>
       </c>
-      <c r="H82">
-        <v>2039</v>
+      <c r="H82" t="s">
+        <v>66</v>
       </c>
       <c r="I82" t="s">
         <v>31</v>
@@ -5255,7 +5509,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2034</v>
       </c>
@@ -5267,9 +5521,9 @@
         <v>5891.1157750362445</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
@@ -5289,8 +5543,8 @@
       <c r="G83" t="s">
         <v>31</v>
       </c>
-      <c r="H83">
-        <v>2040</v>
+      <c r="H83" t="s">
+        <v>65</v>
       </c>
       <c r="I83" t="s">
         <v>31</v>
@@ -5311,7 +5565,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2035</v>
       </c>
@@ -5323,9 +5577,9 @@
         <v>5920.5713539114104</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
         <v>32</v>
@@ -5345,8 +5599,8 @@
       <c r="G84" t="s">
         <v>31</v>
       </c>
-      <c r="H84">
-        <v>2041</v>
+      <c r="H84" t="s">
+        <v>64</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
@@ -5367,7 +5621,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2036</v>
       </c>
@@ -5379,9 +5633,9 @@
         <v>5950.1742106809988</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
         <v>32</v>
@@ -5401,8 +5655,8 @@
       <c r="G85" t="s">
         <v>31</v>
       </c>
-      <c r="H85">
-        <v>2042</v>
+      <c r="H85" t="s">
+        <v>63</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -5423,7 +5677,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2037</v>
       </c>
@@ -5435,9 +5689,9 @@
         <v>5979.9250817343955</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
         <v>32</v>
@@ -5457,8 +5711,8 @@
       <c r="G86" t="s">
         <v>31</v>
       </c>
-      <c r="H86">
-        <v>2043</v>
+      <c r="H86" t="s">
+        <v>62</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -5479,7 +5733,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2038</v>
       </c>
@@ -5491,9 +5745,9 @@
         <v>6009.824707143066</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -5513,8 +5767,8 @@
       <c r="G87" t="s">
         <v>31</v>
       </c>
-      <c r="H87">
-        <v>2044</v>
+      <c r="H87" t="s">
+        <v>61</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
@@ -5535,7 +5789,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2039</v>
       </c>
@@ -5547,9 +5801,9 @@
         <v>6039.87383067879</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -5569,8 +5823,8 @@
       <c r="G88" t="s">
         <v>31</v>
       </c>
-      <c r="H88">
-        <v>2045</v>
+      <c r="H88" t="s">
+        <v>60</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
@@ -5591,7 +5845,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
@@ -5603,9 +5857,9 @@
         <v>6070.0731998321526</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
@@ -5625,8 +5879,8 @@
       <c r="G89" t="s">
         <v>31</v>
       </c>
-      <c r="H89">
-        <v>2046</v>
+      <c r="H89" t="s">
+        <v>59</v>
       </c>
       <c r="I89" t="s">
         <v>31</v>
@@ -5647,7 +5901,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2041</v>
       </c>
@@ -5659,9 +5913,9 @@
         <v>6100.4235658313164</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -5681,8 +5935,8 @@
       <c r="G90" t="s">
         <v>31</v>
       </c>
-      <c r="H90">
-        <v>2047</v>
+      <c r="H90" t="s">
+        <v>58</v>
       </c>
       <c r="I90" t="s">
         <v>31</v>
@@ -5703,7 +5957,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S90" s="1">
+      <c r="S90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2042</v>
       </c>
@@ -5715,9 +5969,9 @@
         <v>6130.9256836604764</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
@@ -5737,8 +5991,8 @@
       <c r="G91" t="s">
         <v>31</v>
       </c>
-      <c r="H91">
-        <v>2048</v>
+      <c r="H91" t="s">
+        <v>57</v>
       </c>
       <c r="I91" t="s">
         <v>31</v>
@@ -5759,7 +6013,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2043</v>
       </c>
@@ -5771,9 +6025,9 @@
         <v>6161.5803120787705</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>32</v>
@@ -5793,8 +6047,8 @@
       <c r="G92" t="s">
         <v>31</v>
       </c>
-      <c r="H92">
-        <v>2049</v>
+      <c r="H92" t="s">
+        <v>56</v>
       </c>
       <c r="I92" t="s">
         <v>31</v>
@@ -5815,7 +6069,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S92" s="1">
+      <c r="S92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2044</v>
       </c>
@@ -5827,9 +6081,9 @@
         <v>6192.3882136391694</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>32</v>
@@ -5849,8 +6103,8 @@
       <c r="G93" t="s">
         <v>31</v>
       </c>
-      <c r="H93">
-        <v>2050</v>
+      <c r="H93" t="s">
+        <v>55</v>
       </c>
       <c r="I93" t="s">
         <v>31</v>
@@ -5871,7 +6125,7 @@
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2045</v>
       </c>
@@ -5883,12 +6137,12 @@
         <v>6223.3501547073747</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:23" ht="15">
       <c r="R94" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2046</v>
       </c>
@@ -5900,12 +6154,12 @@
         <v>6254.4669054809001</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:23" ht="15">
       <c r="R95" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2047</v>
       </c>
@@ -5917,12 +6171,12 @@
         <v>6285.7392400083172</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:23" ht="15">
       <c r="R96" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2048</v>
       </c>
@@ -5934,12 +6188,12 @@
         <v>6317.1679362083632</v>
       </c>
     </row>
-    <row r="97" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:23" ht="15">
       <c r="R97" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2049</v>
       </c>
@@ -5951,12 +6205,12 @@
         <v>6348.7537758893886</v>
       </c>
     </row>
-    <row r="98" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:23" ht="15">
       <c r="R98" s="1" t="str">
         <f t="shared" si="3"/>
         <v>REG2</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S98" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2050</v>
       </c>
@@ -5974,28 +6228,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E738D2C-04A8-44A7-9608-813BA02F3F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E738D2C-04A8-44A7-9608-813BA02F3F1E}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="9.14285714285714" style="1"/>
+    <col min="17" max="17" width="24.1428571428571" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.14285714285714" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="8.71428571428571" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85714285714286" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6036,7 +6290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6058,8 +6312,8 @@
       <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2">
-        <v>2005</v>
+      <c r="H2" t="s">
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -6080,7 +6334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6102,8 +6356,8 @@
       <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3">
-        <v>2005</v>
+      <c r="H3" t="s">
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -6121,7 +6375,7 @@
         <v>1115.4324961</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -6139,7 +6393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -6178,7 +6432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6208,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6226,7 +6480,7 @@
         <f>IF(B2="","",B2)</f>
         <v>REG1</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="str">
         <f>IF(H2="","",H2)</f>
         <v>2005</v>
       </c>
@@ -6235,7 +6489,7 @@
         <v>1134.680662</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6250,19 +6504,19 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="R8" s="1" t="str">
-        <f t="shared" ref="R8:R71" si="0">IF(B3="","",B3)</f>
+        <f t="shared" si="0" ref="R8:R71">IF(B3="","",B3)</f>
         <v>REG2</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:S71" si="1">IF(H3="","",H3)</f>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="1" ref="S8:S71">IF(H3="","",H3)</f>
         <v>2005</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8:W71" si="2">IF(M3="","",M3)</f>
+        <f t="shared" si="2" ref="W8:W71">IF(M3="","",M3)</f>
         <v>1115.4324961</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6289,7 +6543,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6316,7 +6570,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6343,7 +6597,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6370,7 +6624,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6397,7 +6651,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6424,7 +6678,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6451,7 +6705,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6478,7 +6732,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6505,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -6532,7 +6786,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6559,7 +6813,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6586,7 +6840,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6613,7 +6867,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6640,7 +6894,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6667,7 +6921,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6694,7 +6948,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6721,7 +6975,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6748,7 +7002,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6775,7 +7029,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6802,7 +7056,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6829,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6856,7 +7110,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6883,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -6910,7 +7164,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -6937,7 +7191,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -6964,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6991,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7018,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7045,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -7072,7 +7326,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -7099,7 +7353,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7126,7 +7380,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -7153,7 +7407,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7180,7 +7434,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7207,7 +7461,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7234,7 +7488,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7261,7 +7515,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7288,7 +7542,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -7315,7 +7569,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7342,7 +7596,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7369,7 +7623,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -7396,7 +7650,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7423,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7450,7 +7704,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -7477,7 +7731,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7504,7 +7758,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -7531,7 +7785,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -7558,7 +7812,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -7585,7 +7839,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -7612,7 +7866,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -7639,7 +7893,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -7666,7 +7920,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -7693,7 +7947,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -7720,7 +7974,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -7747,7 +8001,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -7774,7 +8028,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -7801,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -7828,7 +8082,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -7855,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -7882,7 +8136,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -7909,7 +8163,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -7936,7 +8190,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -7963,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -7978,19 +8232,19 @@
       <c r="L72"/>
       <c r="M72"/>
       <c r="R72" s="1" t="str">
-        <f t="shared" ref="R72:R98" si="3">IF(B67="","",B67)</f>
+        <f t="shared" si="3" ref="R72:R98">IF(B67="","",B67)</f>
         <v/>
       </c>
       <c r="S72" s="1" t="str">
-        <f t="shared" ref="S72:S98" si="4">IF(H67="","",H67)</f>
+        <f t="shared" si="4" ref="S72:S98">IF(H67="","",H67)</f>
         <v/>
       </c>
       <c r="W72" s="1" t="str">
-        <f t="shared" ref="W72:W98" si="5">IF(M67="","",M67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="5" ref="W72:W98">IF(M67="","",M67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -8017,7 +8271,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -8044,7 +8298,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -8071,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -8098,7 +8352,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -8125,7 +8379,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -8152,7 +8406,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -8179,7 +8433,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -8206,7 +8460,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -8233,7 +8487,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -8260,7 +8514,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -8287,7 +8541,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -8314,7 +8568,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -8341,7 +8595,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -8368,7 +8622,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -8395,7 +8649,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -8422,7 +8676,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -8449,7 +8703,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -8476,7 +8730,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -8503,7 +8757,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -8530,7 +8784,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8557,7 +8811,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:23" ht="15">
       <c r="R94" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8571,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:23" ht="15">
       <c r="R95" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8585,7 +8839,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:23" ht="15">
       <c r="R96" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8599,7 +8853,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:23" ht="15">
       <c r="R97" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8613,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:23" ht="15">
       <c r="R98" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8633,22 +8887,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
   <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1428571428571" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8658,7 +8912,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -8680,7 +8934,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8699,7 +8953,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8718,17 +8972,17 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -8736,7 +8990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8757,7 +9011,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8782,7 +9036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8825,7 +9079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -8867,7 +9121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="15">
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
@@ -8895,27 +9149,27 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-0.50</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15"/>
+    <row r="18" s="1" customFormat="1" ht="15"/>
+    <row r="19" s="1" customFormat="1" ht="15"/>
+    <row r="20" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" s="1" customFormat="1" ht="15">
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
@@ -8925,7 +9179,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -8945,7 +9199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15">
       <c r="C24" t="s">
         <v>15</v>
       </c>
